--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H2">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>393.3482826037491</v>
+        <v>22.26131838919288</v>
       </c>
       <c r="R2">
-        <v>393.3482826037491</v>
+        <v>200.3518655027359</v>
       </c>
       <c r="S2">
-        <v>0.1388528041413295</v>
+        <v>0.006657178659711259</v>
       </c>
       <c r="T2">
-        <v>0.1388528041413295</v>
+        <v>0.006657178659711258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H3">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>1952.895942817711</v>
+        <v>64.99657398580132</v>
       </c>
       <c r="R3">
-        <v>1952.895942817711</v>
+        <v>584.9691658722119</v>
       </c>
       <c r="S3">
-        <v>0.6893765394410801</v>
+        <v>0.01943702514504616</v>
       </c>
       <c r="T3">
-        <v>0.6893765394410801</v>
+        <v>0.01943702514504616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H4">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>173.735149314207</v>
+        <v>1.795873681741777</v>
       </c>
       <c r="R4">
-        <v>173.735149314207</v>
+        <v>16.162863135676</v>
       </c>
       <c r="S4">
-        <v>0.06132888772388984</v>
+        <v>0.0005370504900299355</v>
       </c>
       <c r="T4">
-        <v>0.06132888772388984</v>
+        <v>0.0005370504900299354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.351995069039864</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H5">
-        <v>0.351995069039864</v>
+        <v>26.912852</v>
       </c>
       <c r="I5">
-        <v>0.001155611128846779</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J5">
-        <v>0.001155611128846779</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>0.5109925768683531</v>
+        <v>5.874432673468888</v>
       </c>
       <c r="R5">
-        <v>0.5109925768683531</v>
+        <v>52.86989406121999</v>
       </c>
       <c r="S5">
-        <v>0.0001803814973435413</v>
+        <v>0.00175673098726771</v>
       </c>
       <c r="T5">
-        <v>0.0001803814973435413</v>
+        <v>0.00175673098726771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H6">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>2.536976451430076</v>
+        <v>675.4964641134287</v>
       </c>
       <c r="R6">
-        <v>2.536976451430076</v>
+        <v>6079.46817702086</v>
       </c>
       <c r="S6">
-        <v>0.000895558236557629</v>
+        <v>0.2020051358588638</v>
       </c>
       <c r="T6">
-        <v>0.000895558236557629</v>
+        <v>0.2020051358588638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H7">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>0.225696604172306</v>
+        <v>1972.253176532888</v>
       </c>
       <c r="R7">
-        <v>0.225696604172306</v>
+        <v>17750.278588796</v>
       </c>
       <c r="S7">
-        <v>7.967139494560915E-05</v>
+        <v>0.589796234383696</v>
       </c>
       <c r="T7">
-        <v>7.967139494560915E-05</v>
+        <v>0.5897962343836959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.288177672303</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H8">
-        <v>33.288177672303</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.109286157564854</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J8">
-        <v>0.109286157564854</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>48.32457379138818</v>
+        <v>54.49391185204278</v>
       </c>
       <c r="R8">
-        <v>48.32457379138818</v>
+        <v>490.445206668385</v>
       </c>
       <c r="S8">
-        <v>0.01705868025011403</v>
+        <v>0.01629623640088275</v>
       </c>
       <c r="T8">
-        <v>0.01705868025011403</v>
+        <v>0.01629623640088275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.288177672303</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H9">
-        <v>33.288177672303</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.109286157564854</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J9">
-        <v>0.109286157564854</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>239.9218917924356</v>
+        <v>178.2535261490639</v>
       </c>
       <c r="R9">
-        <v>239.9218917924356</v>
+        <v>1604.281735341575</v>
       </c>
       <c r="S9">
-        <v>0.08469295259090266</v>
+        <v>0.05330616765599638</v>
       </c>
       <c r="T9">
-        <v>0.08469295259090266</v>
+        <v>0.05330616765599638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.405826</v>
+      </c>
+      <c r="H10">
+        <v>1.217478</v>
+      </c>
+      <c r="I10">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J10">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P10">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q10">
+        <v>1.007052890189333</v>
+      </c>
+      <c r="R10">
+        <v>9.063476011703999</v>
+      </c>
+      <c r="S10">
+        <v>0.0003011560632915436</v>
+      </c>
+      <c r="T10">
+        <v>0.0003011560632915436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.405826</v>
+      </c>
+      <c r="H11">
+        <v>1.217478</v>
+      </c>
+      <c r="I11">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J11">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.245227</v>
+      </c>
+      <c r="N11">
+        <v>21.735681</v>
+      </c>
+      <c r="O11">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P11">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q11">
+        <v>2.940301492502</v>
+      </c>
+      <c r="R11">
+        <v>26.462713432518</v>
+      </c>
+      <c r="S11">
+        <v>0.0008792880999583589</v>
+      </c>
+      <c r="T11">
+        <v>0.0008792880999583586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.405826</v>
+      </c>
+      <c r="H12">
+        <v>1.217478</v>
+      </c>
+      <c r="I12">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J12">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.600563</v>
+      </c>
+      <c r="O12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P12">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q12">
+        <v>0.08124136001266667</v>
+      </c>
+      <c r="R12">
+        <v>0.7311722401139999</v>
+      </c>
+      <c r="S12">
+        <v>2.429497834345709E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.429497834345709E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.405826</v>
+      </c>
+      <c r="H13">
+        <v>1.217478</v>
+      </c>
+      <c r="I13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.964485</v>
+      </c>
+      <c r="O13">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P13">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q13">
+        <v>0.2657463632033333</v>
+      </c>
+      <c r="R13">
+        <v>2.39171726883</v>
+      </c>
+      <c r="S13">
+        <v>7.94706309430423E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.947063094304227E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H14">
+        <v>103.263979</v>
+      </c>
+      <c r="I14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>85.41615413535243</v>
+      </c>
+      <c r="R14">
+        <v>768.7453872181718</v>
+      </c>
+      <c r="S14">
+        <v>0.02554343766003216</v>
+      </c>
+      <c r="T14">
+        <v>0.02554343766003215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H15">
+        <v>103.263979</v>
+      </c>
+      <c r="I15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>249.3903229260777</v>
+      </c>
+      <c r="R15">
+        <v>2244.512906334699</v>
+      </c>
+      <c r="S15">
+        <v>0.07457940750391372</v>
+      </c>
+      <c r="T15">
+        <v>0.07457940750391369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>33.288177672303</v>
-      </c>
-      <c r="H10">
-        <v>33.288177672303</v>
-      </c>
-      <c r="I10">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="J10">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="N10">
-        <v>0.641192516667742</v>
-      </c>
-      <c r="O10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="P10">
-        <v>0.0689430838426727</v>
-      </c>
-      <c r="Q10">
-        <v>21.3441304169869</v>
-      </c>
-      <c r="R10">
-        <v>21.3441304169869</v>
-      </c>
-      <c r="S10">
-        <v>0.007534524723837265</v>
-      </c>
-      <c r="T10">
-        <v>0.007534524723837265</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H16">
+        <v>103.263979</v>
+      </c>
+      <c r="I16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>6.890725002241888</v>
+      </c>
+      <c r="R16">
+        <v>62.01652502017699</v>
+      </c>
+      <c r="S16">
+        <v>0.002060650076193745</v>
+      </c>
+      <c r="T16">
+        <v>0.002060650076193744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H17">
+        <v>103.263979</v>
+      </c>
+      <c r="I17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>22.54005975397945</v>
+      </c>
+      <c r="R17">
+        <v>202.860537785815</v>
+      </c>
+      <c r="S17">
+        <v>0.006740535405829977</v>
+      </c>
+      <c r="T17">
+        <v>0.006740535405829975</v>
       </c>
     </row>
   </sheetData>
